--- a/r5-ELGA-MOPED-108-value-sets-fertigstellen/ValueSet-moped-LKFbrechnungsKnoten-valueset.xlsx
+++ b/r5-ELGA-MOPED-108-value-sets-fertigstellen/ValueSet-moped-LKFbrechnungsKnoten-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T07:08:41+00:00</t>
+    <t>2024-10-11T07:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -410,49 +410,65 @@
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" t="s" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" t="s" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
